--- a/docs/画面項目定義書/instance_type_dashboard.xlsx
+++ b/docs/画面項目定義書/instance_type_dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D365DA61-6AF9-4DAA-A1B4-92F616B3BB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AE3BA7-32FD-4D81-A830-A9464B497C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -143,16 +143,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>インスタンスタイプ追加モーダルを表示</t>
-    <rPh sb="9" eb="11">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
@@ -195,6 +185,16 @@
     <t>インスタンスタイプダッシュボード画面</t>
     <rPh sb="16" eb="18">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インスタンスタイプ追加モーダルへ遷移</t>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -520,7 +520,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -632,12 +632,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1090,20 +1084,20 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="29.90625" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1108,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1123,7 +1117,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1132,7 +1126,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13">
+    <row r="4" spans="1:7" ht="13.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1141,7 +1135,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13">
+    <row r="5" spans="1:7" ht="13.5">
       <c r="A5" s="41" t="s">
         <v>1</v>
       </c>
@@ -1154,7 +1148,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7" ht="13.5">
       <c r="A6" s="42" t="s">
         <v>21</v>
       </c>
@@ -1165,7 +1159,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13">
+    <row r="7" spans="1:7" ht="13.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1174,7 +1168,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13">
+    <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1197,7 +1191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13">
+    <row r="9" spans="1:7" ht="13.5">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1212,7 +1206,7 @@
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
     </row>
-    <row r="10" spans="1:7" ht="13">
+    <row r="10" spans="1:7" ht="13.5">
       <c r="A10" s="28">
         <v>2</v>
       </c>
@@ -1224,12 +1218,12 @@
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:7" ht="13">
+    <row r="11" spans="1:7" ht="13.5">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1245,81 +1239,81 @@
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.5">
       <c r="A12" s="28">
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="31">
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13">
+    <row r="14" spans="1:7" ht="13.5">
       <c r="A14" s="31">
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13">
+    <row r="15" spans="1:7" ht="13.5">
       <c r="A15" s="31">
         <v>7</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="44" t="s">
+      <c r="B15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="31">
         <v>11</v>
       </c>
@@ -1335,10 +1329,10 @@
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="31">
         <v>12</v>
       </c>
@@ -1349,7 +1343,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="34"/>
     </row>
-    <row r="18" spans="1:7" ht="13">
+    <row r="18" spans="1:7" ht="13.5">
       <c r="A18" s="31">
         <v>13</v>
       </c>
@@ -1360,7 +1354,7 @@
       <c r="F18" s="33"/>
       <c r="G18" s="34"/>
     </row>
-    <row r="19" spans="1:7" ht="13">
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="31">
         <v>14</v>
       </c>
@@ -1371,7 +1365,7 @@
       <c r="F19" s="39"/>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:7" ht="13">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="31">
         <v>15</v>
       </c>
@@ -1382,7 +1376,7 @@
       <c r="F20" s="39"/>
       <c r="G20" s="34"/>
     </row>
-    <row r="21" spans="1:7" ht="13">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="31">
         <v>13</v>
       </c>
@@ -1393,7 +1387,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="40"/>
     </row>
-    <row r="22" spans="1:7" ht="13">
+    <row r="22" spans="1:7" ht="13.5">
       <c r="A22" s="28">
         <v>14</v>
       </c>
@@ -1404,7 +1398,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:7" ht="13">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1415,7 +1409,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="13">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="28">
         <v>16</v>
       </c>
@@ -1426,7 +1420,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="1:7" ht="13">
+    <row r="25" spans="1:7" ht="13.5">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1437,7 +1431,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13">
+    <row r="26" spans="1:7" ht="13.5">
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
@@ -1446,7 +1440,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="13">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
@@ -1455,7 +1449,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="13">
+    <row r="28" spans="1:7" ht="13.5">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
@@ -1464,7 +1458,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13">
+    <row r="29" spans="1:7" ht="13.5">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>

--- a/docs/画面項目定義書/instance_type_dashboard.xlsx
+++ b/docs/画面項目定義書/instance_type_dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AE3BA7-32FD-4D81-A830-A9464B497C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA77DED4-52F8-4B42-8F70-BC7B36F02B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>日本工学院</t>
   </si>
@@ -88,22 +88,6 @@
   </si>
   <si>
     <t>ユーザーオブジェクトを取得し、繰り返しで表示</t>
-    <rPh sb="11" eb="13">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ユーザーオブジェクトを取得し、繰り返しで表示</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -169,19 +153,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>繰り返しで表示、削除ボタン・編集ボタンを表示</t>
-    <rPh sb="8" eb="10">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>インスタンスタイプダッシュボード画面</t>
     <rPh sb="16" eb="18">
       <t>ガメン</t>
@@ -194,6 +165,146 @@
       <t>ツイカ</t>
     </rPh>
     <rPh sb="16" eb="18">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>削除ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>非表示</t>
+    <rPh sb="0" eb="3">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>繰り返し表示、押下時確認ポップアップを表示</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>確認ポップアップ</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>はい(ポップアップ内)</t>
+    <rPh sb="9" eb="10">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>確認ポップアップを非表示</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>いいえ(ポップアップ内)</t>
+    <rPh sb="10" eb="11">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>いいえ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>繰り返し表示、押下時削除ボタンと編集ボタンを表示</t>
+    <rPh sb="16" eb="18">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>編集ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>繰り返し表示、押下時インスタンスタイプ詳細編集モーダルへ遷移</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>・ユーザーオブジェクトを取得し、繰り返しで表示
+・インスタンスタイプ詳細編集モーダルへ遷移</t>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
@@ -520,7 +631,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -622,16 +733,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1083,21 +1197,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="F9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="29.875" customWidth="1"/>
-    <col min="6" max="6" width="40.875" customWidth="1"/>
-    <col min="7" max="7" width="38.5" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="29.90625" customWidth="1"/>
+    <col min="6" max="6" width="40.90625" customWidth="1"/>
+    <col min="7" max="7" width="38.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5">
+    <row r="1" spans="1:7" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +1222,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5">
+    <row r="2" spans="1:7" ht="13">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1117,7 +1231,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:7" ht="14">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1126,7 +1240,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5">
+    <row r="4" spans="1:7" ht="13">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1135,11 +1249,11 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:7" ht="13">
+      <c r="A5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1148,18 +1262,18 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5">
-      <c r="A6" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="42"/>
+    <row r="6" spans="1:7" ht="13">
+      <c r="A6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="40"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5">
+    <row r="7" spans="1:7" ht="13">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1168,7 +1282,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13.5">
+    <row r="8" spans="1:7" ht="13">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1191,7 +1305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5">
+    <row r="9" spans="1:7" ht="13">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1206,7 +1320,7 @@
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5">
+    <row r="10" spans="1:7" ht="13">
       <c r="A10" s="28">
         <v>2</v>
       </c>
@@ -1218,176 +1332,212 @@
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5">
+    <row r="11" spans="1:7" ht="13">
       <c r="A11" s="21">
         <v>3</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24">
       <c r="A12" s="28">
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="13.5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13">
       <c r="A13" s="31">
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13">
       <c r="A14" s="31">
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="13.5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13">
       <c r="A15" s="31">
         <v>7</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.5">
+      <c r="E15" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="24">
       <c r="A16" s="31">
         <v>11</v>
       </c>
       <c r="B16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>18</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>19</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13">
       <c r="A17" s="31">
         <v>12</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
+      <c r="B17" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>18</v>
+      </c>
       <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
+      <c r="E17" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.5">
+      <c r="G17" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="24">
       <c r="A18" s="31">
         <v>13</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.5">
+      <c r="B18" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13">
       <c r="A19" s="31">
         <v>14</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.5">
+      <c r="B19" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" spans="1:7" ht="13">
       <c r="A20" s="31">
         <v>15</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="34"/>
-    </row>
-    <row r="21" spans="1:7" ht="13.5">
+      <c r="B20" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="13">
       <c r="A21" s="31">
         <v>13</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>18</v>
+      </c>
       <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
+      <c r="E21" s="32" t="s">
+        <v>39</v>
+      </c>
       <c r="F21" s="33"/>
-      <c r="G21" s="40"/>
-    </row>
-    <row r="22" spans="1:7" ht="13.5">
+      <c r="G21" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13">
       <c r="A22" s="28">
         <v>14</v>
       </c>
@@ -1398,7 +1548,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:7" ht="13.5">
+    <row r="23" spans="1:7" ht="13">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1409,7 +1559,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="13.5">
+    <row r="24" spans="1:7" ht="13">
       <c r="A24" s="28">
         <v>16</v>
       </c>
@@ -1420,7 +1570,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="1:7" ht="13.5">
+    <row r="25" spans="1:7" ht="13">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1431,7 +1581,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13.5">
+    <row r="26" spans="1:7" ht="13">
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
@@ -1440,7 +1590,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="13.5">
+    <row r="27" spans="1:7" ht="13">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
@@ -1449,7 +1599,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="13.5">
+    <row r="28" spans="1:7" ht="13">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
@@ -1458,7 +1608,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13.5">
+    <row r="29" spans="1:7" ht="13">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>

--- a/docs/画面項目定義書/instance_type_dashboard.xlsx
+++ b/docs/画面項目定義書/instance_type_dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA77DED4-52F8-4B42-8F70-BC7B36F02B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A4FE74-87DD-4B11-90B6-4277F4BC1FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -259,7 +259,33 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>繰り返し表示、押下時インスタンスタイプ詳細編集モーダルへ遷移</t>
+    <t>・ユーザーオブジェクトを取得し、繰り返しで表示
+・インスタンスタイプ詳細画面へ遷移</t>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>繰り返し表示、押下時インスタンスタイプ編集モーダルへ遷移</t>
     <rPh sb="0" eb="1">
       <t>ク</t>
     </rPh>
@@ -273,38 +299,9 @@
       <t>オウカジ</t>
     </rPh>
     <rPh sb="19" eb="21">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
       <t>ヘンシュウ</t>
     </rPh>
-    <rPh sb="28" eb="30">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>・ユーザーオブジェクトを取得し、繰り返しで表示
-・インスタンスタイプ詳細編集モーダルへ遷移</t>
-    <rPh sb="12" eb="14">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
+    <rPh sb="26" eb="28">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
@@ -631,7 +628,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,19 +730,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1197,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1250,10 +1241,10 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="13">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1263,10 +1254,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="13">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
@@ -1372,7 +1363,7 @@
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13">
@@ -1469,17 +1460,17 @@
       <c r="A18" s="31">
         <v>13</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="39" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="13">

--- a/docs/画面項目定義書/instance_type_dashboard.xlsx
+++ b/docs/画面項目定義書/instance_type_dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A4FE74-87DD-4B11-90B6-4277F4BC1FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E3B41C-AEAB-44E4-81B2-C8E9D2550DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>日本工学院</t>
   </si>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ユーザーオブジェクトを取得し、繰り返しで表示</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>操作ボタン</t>
     <rPh sb="0" eb="2">
       <t>ソウサ</t>
@@ -146,13 +142,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ユーザーオブジェクトより</t>
-  </si>
-  <si>
-    <t>ユーザーオブジェクトより</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>インスタンスタイプダッシュボード画面</t>
     <rPh sb="16" eb="18">
       <t>ガメン</t>
@@ -259,32 +248,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>・ユーザーオブジェクトを取得し、繰り返しで表示
-・インスタンスタイプ詳細画面へ遷移</t>
-    <rPh sb="12" eb="14">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>繰り返し表示、押下時インスタンスタイプ編集モーダルへ遷移</t>
     <rPh sb="0" eb="1">
       <t>ク</t>
@@ -302,6 +265,40 @@
       <t>ヘンシュウ</t>
     </rPh>
     <rPh sb="26" eb="28">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インスタンスタイプエンティティより</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インスタンスタイプエンティティを取得し、繰り返しで表示</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>・インスタンスタイプエンティティを取得し、繰り返しで表示
+・インスタンスタイプ詳細画面へ遷移</t>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
@@ -1188,21 +1185,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="29.90625" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1213,7 +1210,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1222,7 +1219,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1231,7 +1228,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13">
+    <row r="4" spans="1:7" ht="13.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1240,7 +1237,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13">
+    <row r="5" spans="1:7" ht="13.5">
       <c r="A5" s="40" t="s">
         <v>1</v>
       </c>
@@ -1253,9 +1250,9 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7" ht="13.5">
       <c r="A6" s="41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="11"/>
@@ -1264,7 +1261,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13">
+    <row r="7" spans="1:7" ht="13.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1273,7 +1270,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13">
+    <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1296,7 +1293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13">
+    <row r="9" spans="1:7" ht="13.5">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1311,7 +1308,7 @@
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
     </row>
-    <row r="10" spans="1:7" ht="13">
+    <row r="10" spans="1:7" ht="13.5">
       <c r="A10" s="28">
         <v>2</v>
       </c>
@@ -1323,137 +1320,137 @@
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:7" ht="13">
+    <row r="11" spans="1:7" ht="13.5">
       <c r="A11" s="21">
         <v>3</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="36">
       <c r="A12" s="28">
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="32" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="31">
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="32" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.5">
       <c r="A14" s="31">
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="32" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.5">
       <c r="A15" s="31">
         <v>7</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="31">
         <v>11</v>
       </c>
       <c r="B16" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>17</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>18</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="31">
         <v>12</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="24">
@@ -1461,74 +1458,74 @@
         <v>13</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="31">
         <v>14</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:7" ht="13">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="31">
         <v>15</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="31">
         <v>13</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.5">
       <c r="A22" s="28">
         <v>14</v>
       </c>
@@ -1539,7 +1536,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:7" ht="13">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1550,7 +1547,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="13">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="28">
         <v>16</v>
       </c>
@@ -1561,7 +1558,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="1:7" ht="13">
+    <row r="25" spans="1:7" ht="13.5">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1572,7 +1569,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13">
+    <row r="26" spans="1:7" ht="13.5">
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
@@ -1581,7 +1578,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="13">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
@@ -1590,7 +1587,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="13">
+    <row r="28" spans="1:7" ht="13.5">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
@@ -1599,7 +1596,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13">
+    <row r="29" spans="1:7" ht="13.5">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>

--- a/docs/画面項目定義書/instance_type_dashboard.xlsx
+++ b/docs/画面項目定義書/instance_type_dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E3B41C-AEAB-44E4-81B2-C8E9D2550DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21158D05-4184-47C3-93DC-C22104929D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
-  <si>
-    <t>日本工学院</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>画面名</t>
   </si>
@@ -300,6 +297,26 @@
     </rPh>
     <rPh sb="44" eb="46">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>日本工学院</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>確認ポップアップを非表示、削除処理を実行</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>サクジョショリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -1185,9 +1202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
@@ -1201,7 +1216,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1239,11 +1254,11 @@
     </row>
     <row r="5" spans="1:7" ht="13.5">
       <c r="A5" s="40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="40"/>
       <c r="C5" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -1252,7 +1267,7 @@
     </row>
     <row r="6" spans="1:7" ht="13.5">
       <c r="A6" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="11"/>
@@ -1272,25 +1287,25 @@
     </row>
     <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="C8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="E8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="F8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="G8" s="20" t="s">
         <v>8</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.5">
@@ -1298,12 +1313,12 @@
         <v>1</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
@@ -1313,14 +1328,14 @@
         <v>2</v>
       </c>
       <c r="B10" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>10</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>11</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
@@ -1330,37 +1345,37 @@
         <v>3</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24">
       <c r="A12" s="28">
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.5">
@@ -1368,18 +1383,18 @@
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.5">
@@ -1387,18 +1402,18 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.5">
@@ -1406,13 +1421,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.5">
@@ -1420,18 +1435,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>16</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>17</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5">
@@ -1439,35 +1454,35 @@
         <v>12</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5">
       <c r="A18" s="31">
         <v>13</v>
       </c>
       <c r="B18" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="34" t="s">
         <v>38</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="13.5">
@@ -1475,14 +1490,14 @@
         <v>14</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
@@ -1492,18 +1507,18 @@
         <v>15</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="34" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="13.5">
@@ -1511,18 +1526,18 @@
         <v>13</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="13.5">
